--- a/src/main/resources/Bản tin thời tiết tự động.xlsx
+++ b/src/main/resources/Bản tin thời tiết tự động.xlsx
@@ -12,11 +12,11 @@
     <workbookView windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hung Yen - Van Lam" r:id="rId5" sheetId="3"/>
-    <sheet name="Ha Nam - Phu Ly" r:id="rId6" sheetId="4"/>
-    <sheet name="Dak Lak - Lak" r:id="rId7" sheetId="5"/>
-    <sheet name="Ha Noi - Chuong My" r:id="rId8" sheetId="6"/>
-    <sheet name="Quang Binh - Tuyen Hoa" r:id="rId9" sheetId="7"/>
+    <sheet name="Hưng Yên - Văn Lâm" r:id="rId5" sheetId="3"/>
+    <sheet name="Hà Nam - Phủ Lý" r:id="rId6" sheetId="4"/>
+    <sheet name="Đắc Lắc - Lắc" r:id="rId7" sheetId="5"/>
+    <sheet name="Hà Nội - Chương Mỹ" r:id="rId8" sheetId="6"/>
+    <sheet name="Quảng Bình - Tuyên Hóa" r:id="rId9" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>Trưa (10h-13h)</t>
   </si>
@@ -120,7 +120,7 @@
     <t>SMS</t>
   </si>
   <si>
-    <t>8-5</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>37.0</t>
@@ -132,19 +132,56 @@
     <t>Bắc tây bắc</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Dự báo ngày: 8-5
-Trạm Hung Yen - Van Lam dự báo cho 1 ngày tới: 
-Nhiệt độ cao nhất: 37.04
-Nhiệt độ thấp nhất: 24.78
-Độ ẩm trung bình: 61.0
-Hướng gió thịnh hành: Bắc tây bắc
-Trời không mưa trong cả ngày
-Tốc độ gió trung bình: 1.6
-Không có nắng</t>
-  </si>
-  <si>
-    <t>37.6</t>
+    <t xml:space="preserve">Trạm Hưng Yên - Văn Lâm.
+Dự báo ngày: 8-6.
+Nhiệt độ cao nhất: 37.01 độ C.
+Nhiệt độ thấp nhất: 24.78 độ C.
+Độ ẩm trung bình: 63.0%.
+Hướng gió thịnh hành: Bắc tây bắc. Tốc độ gió trung bình: 1.7m/s. Cấp gió 2.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>Tây tây nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hưng Yên - Văn Lâm.
+Dự báo ngày: 9-6.
+Nhiệt độ cao nhất: 35.26 độ C.
+Nhiệt độ thấp nhất: 26.09 độ C.
+Độ ẩm trung bình: 71.0%.
+Hướng gió thịnh hành: Tây tây nam. Tốc độ gió trung bình: 1.9m/s. Cấp gió 2.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hưng Yên - Văn Lâm không đủ dữ liệu, chỉ có 15h
+</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hưng Yên - Văn Lâm không có dữ liệu dự báo
+</t>
+  </si>
+  <si>
+    <t>12-6</t>
+  </si>
+  <si>
+    <t>37.5</t>
   </si>
   <si>
     <t>25.1</t>
@@ -153,19 +190,45 @@
     <t>Bắc</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Dự báo ngày: 8-5
-Trạm Ha Nam - Phu Ly dự báo cho 1 ngày tới: 
-Nhiệt độ cao nhất: 37.59
-Nhiệt độ thấp nhất: 25.06
-Độ ẩm trung bình: 60.0
-Hướng gió thịnh hành: Bắc
-Trời không mưa trong cả ngày
-Tốc độ gió trung bình: 1.8
-Không có nắng</t>
-  </si>
-  <si>
-    <t>29.8</t>
+    <t xml:space="preserve">Trạm Hà Nam - Phủ Lý.
+Dự báo ngày: 8-6.
+Nhiệt độ cao nhất: 37.54 độ C.
+Nhiệt độ thấp nhất: 25.06 độ C.
+Độ ẩm trung bình: 61.0%.
+Hướng gió thịnh hành: Bắc. Tốc độ gió trung bình: 1.8m/s. Cấp gió 2.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>Tây tây bắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hà Nam - Phủ Lý.
+Dự báo ngày: 9-6.
+Nhiệt độ cao nhất: 34.86 độ C.
+Nhiệt độ thấp nhất: 25.98 độ C.
+Độ ẩm trung bình: 72.0%.
+Hướng gió thịnh hành: Tây tây bắc. Tốc độ gió trung bình: 1.7m/s. Cấp gió 2.
+Không có nắng. Dự báo buổi mưa:
+Buổi Đêm có mưa 1.2014mm với xác suất 20.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hà Nam - Phủ Lý không đủ dữ liệu, chỉ có 15h
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hà Nam - Phủ Lý không có dữ liệu dự báo
+</t>
+  </si>
+  <si>
+    <t>29.1</t>
   </si>
   <si>
     <t>22.6</t>
@@ -174,38 +237,81 @@
     <t>Tây nam</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Dự báo ngày: 8-5
-Trạm Dak Lak - Lak dự báo cho 1 ngày tới: 
-Nhiệt độ cao nhất: 29.84
-Nhiệt độ thấp nhất: 22.62
-Độ ẩm trung bình: 79.0
-Hướng gió thịnh hành: Tây nam
-Dự báo buổi mưa:
-Buổi Tối có mưa 2.1209mm với xác suất 37
-Buổi Chiều tối có mưa 4.1934996mm với xác suất 43
-Buổi Đêm có mưa 1.4478mm với xác suất 40
-Buổi Sáng sớm có mưa 2.8625mm với xác suất 37
-Tốc độ gió trung bình: 2.5
-Không có nắng</t>
+    <t xml:space="preserve">Trạm Đắc Lắc - Lắc.
+Dự báo ngày: 8-6.
+Nhiệt độ cao nhất: 29.14 độ C.
+Nhiệt độ thấp nhất: 22.62 độ C.
+Độ ẩm trung bình: 80.0%.
+Hướng gió thịnh hành: Tây nam. Tốc độ gió trung bình: 2.5m/s. Cấp gió 2.
+Không có nắng. Dự báo buổi mưa:
+Buổi Tối có mưa 2.6872997mm với xác suất 47
+Buổi Chiều tối có mưa 2.5197mm với xác suất 52
+Buổi Đêm có mưa 0.8433mm với xác suất 36
+Buổi Sáng sớm có mưa 2.8625mm với xác suất 37.
+</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Đắc Lắc - Lắc.
+Dự báo ngày: 9-6.
+Nhiệt độ cao nhất: 27.99 độ C.
+Nhiệt độ thấp nhất: 21.51 độ C.
+Độ ẩm trung bình: 79.0%.
+Hướng gió thịnh hành: Tây nam. Tốc độ gió trung bình: 2.9m/s. Cấp gió 2.
+Không có nắng. Dự báo buổi mưa:
+Buổi Sáng có mưa 2.5756001mm với xác suất 36
+Buổi Sáng sớm có mưa 5.301mm với xác suất 42.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Đắc Lắc - Lắc không đủ dữ liệu, chỉ có 15h
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Đắc Lắc - Lắc không có dữ liệu dự báo
+</t>
   </si>
   <si>
     <t>37.1</t>
   </si>
   <si>
-    <t>Nam đông nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Dự báo ngày: 8-5
-Trạm Ha Noi - Chuong My dự báo cho 1 ngày tới: 
-Nhiệt độ cao nhất: 37.14
-Nhiệt độ thấp nhất: 25.08
-Độ ẩm trung bình: 62.0
-Hướng gió thịnh hành: Nam đông nam
-Trời không mưa trong cả ngày
-Tốc độ gió trung bình: 1.4
-Không có nắng</t>
+    <t xml:space="preserve">Trạm Hà Nội - Chương Mỹ.
+Dự báo ngày: 8-6.
+Nhiệt độ cao nhất: 37.12 độ C.
+Nhiệt độ thấp nhất: 25.08 độ C.
+Độ ẩm trung bình: 63.0%.
+Hướng gió thịnh hành: Bắc. Tốc độ gió trung bình: 1.4m/s. Cấp gió 1.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hà Nội - Chương Mỹ.
+Dự báo ngày: 9-6.
+Nhiệt độ cao nhất: 34.43 độ C.
+Nhiệt độ thấp nhất: 25.55 độ C.
+Độ ẩm trung bình: 73.0%.
+Hướng gió thịnh hành: Tây tây nam. Tốc độ gió trung bình: 1.8m/s. Cấp gió 2.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hà Nội - Chương Mỹ không đủ dữ liệu, chỉ có 15h
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Hà Nội - Chương Mỹ không có dữ liệu dự báo
+</t>
   </si>
   <si>
     <t>34.0</t>
@@ -214,19 +320,38 @@
     <t>24.9</t>
   </si>
   <si>
-    <t>Tây tây nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Dự báo ngày: 8-5
-Trạm Quang Binh - Tuyen Hoa dự báo cho 1 ngày tới: 
-Nhiệt độ cao nhất: 33.97
-Nhiệt độ thấp nhất: 24.88
-Độ ẩm trung bình: 70.0
-Hướng gió thịnh hành: Tây tây nam
-Trời không mưa trong cả ngày
-Tốc độ gió trung bình: 2.1
-Không có nắng</t>
+    <t xml:space="preserve">Trạm Quảng Bình - Tuyên Hóa.
+Dự báo ngày: 8-6.
+Nhiệt độ cao nhất: 33.97 độ C.
+Nhiệt độ thấp nhất: 24.88 độ C.
+Độ ẩm trung bình: 70.0%.
+Hướng gió thịnh hành: Tây nam. Tốc độ gió trung bình: 2.3m/s. Cấp gió 2.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Quảng Bình - Tuyên Hóa.
+Dự báo ngày: 9-6.
+Nhiệt độ cao nhất: 33.09 độ C.
+Nhiệt độ thấp nhất: 25.34 độ C.
+Độ ẩm trung bình: 67.0%.
+Hướng gió thịnh hành: Tây tây nam. Tốc độ gió trung bình: 3.9m/s. Cấp gió 3.
+Không có nắng. Trời không mưa trong cả ngày.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Quảng Bình - Tuyên Hóa không đủ dữ liệu, chỉ có 15h
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Quảng Bình - Tuyên Hóa không có dữ liệu dự báo
+</t>
   </si>
 </sst>
 </file>
@@ -407,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,6 +691,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -912,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,47 +1052,47 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="33.75" r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row ht="78.75" r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="48" t="s">
         <v>27</v>
       </c>
@@ -1010,12 +1138,12 @@
       <c r="P2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row customHeight="1" ht="41.25" r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -1083,12 +1211,12 @@
       </c>
       <c r="V3" s="53"/>
     </row>
-    <row customHeight="1" ht="216.75" r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="19"/>
@@ -1111,17 +1239,333 @@
         <v>32</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>1.600000023841858</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>1.899999976158142</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1140,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,47 +1596,47 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="33.75" r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row ht="78.75" r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="48" t="s">
         <v>27</v>
       </c>
@@ -1238,12 +1682,12 @@
       <c r="P2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row customHeight="1" ht="41.25" r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -1311,7 +1755,7 @@
       </c>
       <c r="V3" s="53"/>
     </row>
-    <row customHeight="1" ht="216.75" r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
@@ -1333,23 +1777,343 @@
       <c r="O4" s="17"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="47" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>1.7999999523162842</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11" t="n">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="J5" s="25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1368,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,47 +2144,47 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="33.75" r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row ht="78.75" r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="48" t="s">
         <v>27</v>
       </c>
@@ -1466,12 +2230,12 @@
       <c r="P2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row customHeight="1" ht="41.25" r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -1539,7 +2303,7 @@
       </c>
       <c r="V3" s="53"/>
     </row>
-    <row customHeight="1" ht="216.75" r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
@@ -1555,16 +2319,16 @@
       <c r="E4" s="13"/>
       <c r="F4" s="21"/>
       <c r="G4" s="5" t="n">
-        <v>4.199999809265137</v>
+        <v>2.5</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>2.0999999046325684</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.399999976158142</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="J4" s="25" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="27"/>
@@ -1573,23 +2337,345 @@
       <c r="O4" s="17"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="47" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>2.5</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>5.300000190734863</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>42</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1608,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,47 +2706,47 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="33.75" r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row ht="78.75" r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="48" t="s">
         <v>27</v>
       </c>
@@ -1706,12 +2792,12 @@
       <c r="P2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row customHeight="1" ht="41.25" r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -1779,12 +2865,12 @@
       </c>
       <c r="V3" s="53"/>
     </row>
-    <row customHeight="1" ht="216.75" r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="19"/>
@@ -1801,23 +2887,339 @@
       <c r="O4" s="17"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="47" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>1.399999976158142</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1836,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,47 +3250,47 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="33.75" r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row ht="78.75" r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="48" t="s">
         <v>27</v>
       </c>
@@ -1934,12 +3336,12 @@
       <c r="P2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row customHeight="1" ht="41.25" r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -2007,12 +3409,12 @@
       </c>
       <c r="V3" s="53"/>
     </row>
-    <row customHeight="1" ht="216.75" r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="19"/>
@@ -2029,23 +3431,339 @@
       <c r="O4" s="17"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="47" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="S4" s="3" t="n">
         <v>70.0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>2.0999999046325684</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>3.9000000953674316</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32.25" r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
